--- a/doc/obj/object.xlsx
+++ b/doc/obj/object.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25128" windowHeight="10415"/>
+    <workbookView windowWidth="25128" windowHeight="10415" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="object-keys" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
     <t>Array[String]</t>
   </si>
   <si>
-    <t>苹果;香蕉;桃子</t>
+    <t>苹果|香蕉|桃子</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +1001,7 @@
   <sheetPr/>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -1078,8 +1078,8 @@
   <sheetPr/>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelRow="6" outlineLevelCol="1"/>
